--- a/Excel_SEBAL_v3_4_4.xlsx
+++ b/Excel_SEBAL_v3_4_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timhe\Documents\GitHub\SEBAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA97C89-EFE8-4753-B57E-9B1D86700F35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB4B38B-9DF6-414A-93A7-854C8A50C325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-870" yWindow="2025" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Input" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="357">
   <si>
     <t>Run</t>
   </si>
@@ -1095,13 +1095,16 @@
   </si>
   <si>
     <t>QC Temp</t>
+  </si>
+  <si>
+    <t>Pixel Resolution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1263,10 +1266,10 @@
     <cellStyle name="60% - Accent3" xfId="6" builtinId="40"/>
     <cellStyle name="60% - Accent5" xfId="7" builtinId="48"/>
     <cellStyle name="60% - Accent6" xfId="8" builtinId="52"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1546,11 +1549,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G366"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:J76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="102.5703125" customWidth="1"/>
@@ -1563,7 +1566,7 @@
     <col min="10" max="10" width="64.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1580,130 +1583,130 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5">
       <c r="B77" t="s">
         <v>5</v>
       </c>
@@ -1717,7 +1720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5">
       <c r="B78" t="s">
         <v>7</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5">
       <c r="B79" t="s">
         <v>7</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5">
       <c r="B80" t="s">
         <v>7</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5">
       <c r="B81" t="s">
         <v>7</v>
       </c>
@@ -1773,7 +1776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5">
       <c r="B82" t="s">
         <v>5</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5">
       <c r="B83" t="s">
         <v>7</v>
       </c>
@@ -1801,7 +1804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5">
       <c r="B84" t="s">
         <v>7</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5">
       <c r="B85" t="s">
         <v>7</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5">
       <c r="B86" t="s">
         <v>8</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5">
       <c r="B87" t="s">
         <v>5</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5">
       <c r="B88" t="s">
         <v>5</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5">
       <c r="B89" t="s">
         <v>7</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5">
       <c r="B90" t="s">
         <v>7</v>
       </c>
@@ -1899,7 +1902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5">
       <c r="B91" t="s">
         <v>8</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5">
       <c r="B92" t="s">
         <v>8</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5">
       <c r="B93" t="s">
         <v>7</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5">
       <c r="B94" t="s">
         <v>7</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5">
       <c r="B95" t="s">
         <v>7</v>
       </c>
@@ -1969,7 +1972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5">
       <c r="B96" t="s">
         <v>8</v>
       </c>
@@ -1983,7 +1986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5">
       <c r="B97" t="s">
         <v>8</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5">
       <c r="B98" t="s">
         <v>5</v>
       </c>
@@ -2011,7 +2014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5">
       <c r="B99" t="s">
         <v>7</v>
       </c>
@@ -2025,7 +2028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5">
       <c r="B100" t="s">
         <v>7</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5">
       <c r="B101" t="s">
         <v>7</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5">
       <c r="B102" t="s">
         <v>8</v>
       </c>
@@ -2067,7 +2070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5">
       <c r="B103" t="s">
         <v>5</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5">
       <c r="B104" t="s">
         <v>5</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5">
       <c r="B105" t="s">
         <v>7</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5">
       <c r="B106" t="s">
         <v>7</v>
       </c>
@@ -2123,7 +2126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5">
       <c r="B107" t="s">
         <v>8</v>
       </c>
@@ -2137,7 +2140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5">
       <c r="B108" t="s">
         <v>8</v>
       </c>
@@ -2151,7 +2154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5">
       <c r="B109" t="s">
         <v>7</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5">
       <c r="B110" t="s">
         <v>5</v>
       </c>
@@ -2179,7 +2182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5">
       <c r="B111" t="s">
         <v>7</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5">
       <c r="B112" t="s">
         <v>8</v>
       </c>
@@ -2207,7 +2210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5">
       <c r="B113" t="s">
         <v>8</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5">
       <c r="B114" t="s">
         <v>5</v>
       </c>
@@ -2235,7 +2238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5">
       <c r="B115" t="s">
         <v>7</v>
       </c>
@@ -2249,7 +2252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5">
       <c r="B116" t="s">
         <v>7</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5">
       <c r="B117" t="s">
         <v>7</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5">
       <c r="B118" t="s">
         <v>8</v>
       </c>
@@ -2291,7 +2294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5">
       <c r="B119" t="s">
         <v>5</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5">
       <c r="B120" t="s">
         <v>5</v>
       </c>
@@ -2319,7 +2322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5">
       <c r="B121" t="s">
         <v>7</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5">
       <c r="B122" t="s">
         <v>7</v>
       </c>
@@ -2347,7 +2350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5">
       <c r="B123" t="s">
         <v>8</v>
       </c>
@@ -2361,7 +2364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5">
       <c r="B124" t="s">
         <v>8</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5">
       <c r="B125" t="s">
         <v>5</v>
       </c>
@@ -2389,7 +2392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5">
       <c r="B126" t="s">
         <v>7</v>
       </c>
@@ -2403,7 +2406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5">
       <c r="B127" t="s">
         <v>7</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5">
       <c r="B128" t="s">
         <v>8</v>
       </c>
@@ -2431,7 +2434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5">
       <c r="B129" t="s">
         <v>8</v>
       </c>
@@ -2445,7 +2448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5">
       <c r="B130" t="s">
         <v>5</v>
       </c>
@@ -2459,7 +2462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5">
       <c r="B131" t="s">
         <v>5</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5">
       <c r="B132" t="s">
         <v>7</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5">
       <c r="B133" t="s">
         <v>7</v>
       </c>
@@ -2501,7 +2504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5">
       <c r="B134" t="s">
         <v>8</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5">
       <c r="B135" t="s">
         <v>5</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5">
       <c r="B136" t="s">
         <v>5</v>
       </c>
@@ -2543,7 +2546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5">
       <c r="B137" t="s">
         <v>7</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5">
       <c r="B138" t="s">
         <v>7</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5">
       <c r="B139" t="s">
         <v>8</v>
       </c>
@@ -2585,7 +2588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5">
       <c r="B140" t="s">
         <v>8</v>
       </c>
@@ -2599,7 +2602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5">
       <c r="B141" t="s">
         <v>5</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5">
       <c r="B142" t="s">
         <v>7</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5">
       <c r="B143" t="s">
         <v>7</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5">
       <c r="B144" t="s">
         <v>8</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5">
       <c r="B145" t="s">
         <v>8</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5">
       <c r="B146" t="s">
         <v>5</v>
       </c>
@@ -2683,7 +2686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5">
       <c r="B147" t="s">
         <v>5</v>
       </c>
@@ -2697,7 +2700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5">
       <c r="B148" t="s">
         <v>7</v>
       </c>
@@ -2711,7 +2714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5">
       <c r="B149" t="s">
         <v>7</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5">
       <c r="B150" t="s">
         <v>8</v>
       </c>
@@ -2739,7 +2742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5">
       <c r="B151" t="s">
         <v>5</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5">
       <c r="B152" t="s">
         <v>5</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5">
       <c r="B153" t="s">
         <v>7</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5">
       <c r="B154" t="s">
         <v>7</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5">
       <c r="B155" t="s">
         <v>8</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5">
       <c r="B156" t="s">
         <v>8</v>
       </c>
@@ -2823,7 +2826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5">
       <c r="B157" t="s">
         <v>5</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5">
       <c r="B158" t="s">
         <v>5</v>
       </c>
@@ -2851,7 +2854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5">
       <c r="B159" t="s">
         <v>7</v>
       </c>
@@ -2865,7 +2868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5">
       <c r="B160" t="s">
         <v>8</v>
       </c>
@@ -2879,7 +2882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5">
       <c r="B161" t="s">
         <v>8</v>
       </c>
@@ -2893,7 +2896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5">
       <c r="B162" t="s">
         <v>5</v>
       </c>
@@ -2907,7 +2910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5">
       <c r="B163" t="s">
         <v>5</v>
       </c>
@@ -2921,7 +2924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5">
       <c r="B164" t="s">
         <v>7</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5">
       <c r="B165" t="s">
         <v>7</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5">
       <c r="B166" t="s">
         <v>8</v>
       </c>
@@ -2963,7 +2966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5">
       <c r="B167" t="s">
         <v>5</v>
       </c>
@@ -2977,7 +2980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5">
       <c r="B168" t="s">
         <v>5</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5">
       <c r="B169" t="s">
         <v>7</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5">
       <c r="B170" t="s">
         <v>7</v>
       </c>
@@ -3019,7 +3022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5">
       <c r="B171" t="s">
         <v>8</v>
       </c>
@@ -3033,7 +3036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5">
       <c r="B172" t="s">
         <v>8</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5">
       <c r="B173" t="s">
         <v>5</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:5">
       <c r="B174" t="s">
         <v>5</v>
       </c>
@@ -3075,7 +3078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5">
       <c r="B175" t="s">
         <v>7</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5">
       <c r="B176" t="s">
         <v>8</v>
       </c>
@@ -3103,7 +3106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5">
       <c r="B177" t="s">
         <v>8</v>
       </c>
@@ -3117,7 +3120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:5">
       <c r="B178" t="s">
         <v>5</v>
       </c>
@@ -3131,7 +3134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:5">
       <c r="B179" t="s">
         <v>5</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5">
       <c r="B180" t="s">
         <v>7</v>
       </c>
@@ -3159,7 +3162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5">
       <c r="B181" t="s">
         <v>7</v>
       </c>
@@ -3173,7 +3176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:5">
       <c r="B182" t="s">
         <v>8</v>
       </c>
@@ -3187,7 +3190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:5">
       <c r="B183" t="s">
         <v>5</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:5">
       <c r="B184" t="s">
         <v>5</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:5">
       <c r="B185" t="s">
         <v>7</v>
       </c>
@@ -3229,7 +3232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:5">
       <c r="B186" t="s">
         <v>7</v>
       </c>
@@ -3243,7 +3246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:5">
       <c r="B187" t="s">
         <v>8</v>
       </c>
@@ -3257,7 +3260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5">
       <c r="B188" t="s">
         <v>8</v>
       </c>
@@ -3271,7 +3274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:5">
       <c r="B189" t="s">
         <v>5</v>
       </c>
@@ -3285,7 +3288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:5">
       <c r="B190" t="s">
         <v>7</v>
       </c>
@@ -3299,7 +3302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5">
       <c r="B191" t="s">
         <v>7</v>
       </c>
@@ -3313,7 +3316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5">
       <c r="B192" t="s">
         <v>8</v>
       </c>
@@ -3327,7 +3330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5">
       <c r="B193" t="s">
         <v>8</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5">
       <c r="B194" t="s">
         <v>5</v>
       </c>
@@ -3355,7 +3358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:5">
       <c r="B195" t="s">
         <v>7</v>
       </c>
@@ -3369,7 +3372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:5">
       <c r="B196" t="s">
         <v>7</v>
       </c>
@@ -3383,7 +3386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:5">
       <c r="B197" t="s">
         <v>7</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:5">
       <c r="B198" t="s">
         <v>8</v>
       </c>
@@ -3411,7 +3414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5">
       <c r="B199" t="s">
         <v>5</v>
       </c>
@@ -3425,7 +3428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:5">
       <c r="B200" t="s">
         <v>7</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:5">
       <c r="B201" t="s">
         <v>7</v>
       </c>
@@ -3453,7 +3456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:5">
       <c r="B202" t="s">
         <v>7</v>
       </c>
@@ -3467,7 +3470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:5">
       <c r="B203" t="s">
         <v>8</v>
       </c>
@@ -3481,7 +3484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:5">
       <c r="B204" t="s">
         <v>8</v>
       </c>
@@ -3495,7 +3498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:5">
       <c r="B205" t="s">
         <v>5</v>
       </c>
@@ -3509,7 +3512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:5">
       <c r="B206" t="s">
         <v>7</v>
       </c>
@@ -3523,7 +3526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:5">
       <c r="B207" t="s">
         <v>7</v>
       </c>
@@ -3537,7 +3540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:5">
       <c r="B208" t="s">
         <v>8</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:5">
       <c r="B209" t="s">
         <v>8</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:5">
       <c r="B210" t="s">
         <v>5</v>
       </c>
@@ -3579,7 +3582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:5">
       <c r="B211" t="s">
         <v>5</v>
       </c>
@@ -3593,7 +3596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:5">
       <c r="B212" t="s">
         <v>7</v>
       </c>
@@ -3607,7 +3610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:5">
       <c r="B213" t="s">
         <v>7</v>
       </c>
@@ -3621,7 +3624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:5">
       <c r="B214" t="s">
         <v>8</v>
       </c>
@@ -3635,7 +3638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:5">
       <c r="B215" t="s">
         <v>5</v>
       </c>
@@ -3649,7 +3652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:5">
       <c r="B216" t="s">
         <v>5</v>
       </c>
@@ -3663,7 +3666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:5">
       <c r="B217" t="s">
         <v>7</v>
       </c>
@@ -3677,7 +3680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:5">
       <c r="B218" t="s">
         <v>7</v>
       </c>
@@ -3691,7 +3694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:5">
       <c r="B219" t="s">
         <v>8</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:5">
       <c r="B220" t="s">
         <v>8</v>
       </c>
@@ -3719,7 +3722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:5">
       <c r="B221" t="s">
         <v>5</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:5">
       <c r="B222" t="s">
         <v>7</v>
       </c>
@@ -3747,7 +3750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:5">
       <c r="B223" t="s">
         <v>7</v>
       </c>
@@ -3761,7 +3764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:5">
       <c r="B224" t="s">
         <v>8</v>
       </c>
@@ -3775,7 +3778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5">
       <c r="B225" t="s">
         <v>8</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:5">
       <c r="B226" t="s">
         <v>5</v>
       </c>
@@ -3803,7 +3806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:5">
       <c r="B227" t="s">
         <v>7</v>
       </c>
@@ -3817,7 +3820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:5">
       <c r="B228" t="s">
         <v>7</v>
       </c>
@@ -3831,7 +3834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:5">
       <c r="B229" t="s">
         <v>7</v>
       </c>
@@ -3845,7 +3848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:5">
       <c r="B230" t="s">
         <v>8</v>
       </c>
@@ -3859,7 +3862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5">
       <c r="B231" t="s">
         <v>5</v>
       </c>
@@ -3873,7 +3876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5">
       <c r="B232" t="s">
         <v>5</v>
       </c>
@@ -3887,7 +3890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:5">
       <c r="B233" t="s">
         <v>7</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:5">
       <c r="B234" t="s">
         <v>7</v>
       </c>
@@ -3915,7 +3918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:5">
       <c r="B235" t="s">
         <v>8</v>
       </c>
@@ -3929,7 +3932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5">
       <c r="B236" t="s">
         <v>8</v>
       </c>
@@ -3943,7 +3946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5">
       <c r="B237" t="s">
         <v>5</v>
       </c>
@@ -3957,7 +3960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:5">
       <c r="B238" t="s">
         <v>7</v>
       </c>
@@ -3971,7 +3974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:5">
       <c r="B239" t="s">
         <v>7</v>
       </c>
@@ -3985,7 +3988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:5">
       <c r="B240" t="s">
         <v>8</v>
       </c>
@@ -3999,7 +4002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:5">
       <c r="B241" t="s">
         <v>8</v>
       </c>
@@ -4013,7 +4016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:5">
       <c r="B242" t="s">
         <v>5</v>
       </c>
@@ -4027,7 +4030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:5">
       <c r="B243" t="s">
         <v>5</v>
       </c>
@@ -4041,7 +4044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:5">
       <c r="B244" t="s">
         <v>7</v>
       </c>
@@ -4055,7 +4058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:5">
       <c r="B245" t="s">
         <v>7</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:5">
       <c r="B246" t="s">
         <v>8</v>
       </c>
@@ -4083,7 +4086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:5">
       <c r="B247" t="s">
         <v>5</v>
       </c>
@@ -4097,7 +4100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:5">
       <c r="B248" t="s">
         <v>5</v>
       </c>
@@ -4111,7 +4114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:5">
       <c r="B249" t="s">
         <v>7</v>
       </c>
@@ -4125,7 +4128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:5">
       <c r="B250" t="s">
         <v>7</v>
       </c>
@@ -4139,7 +4142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:5">
       <c r="B251" t="s">
         <v>8</v>
       </c>
@@ -4153,7 +4156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:5">
       <c r="B252" t="s">
         <v>8</v>
       </c>
@@ -4167,7 +4170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:5">
       <c r="B253" t="s">
         <v>5</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:5">
       <c r="B254" t="s">
         <v>7</v>
       </c>
@@ -4195,7 +4198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:5">
       <c r="B255" t="s">
         <v>7</v>
       </c>
@@ -4209,7 +4212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:5">
       <c r="B256" t="s">
         <v>8</v>
       </c>
@@ -4223,7 +4226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:5">
       <c r="B257" t="s">
         <v>8</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:5">
       <c r="B258" t="s">
         <v>5</v>
       </c>
@@ -4251,7 +4254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:5">
       <c r="B259" t="s">
         <v>7</v>
       </c>
@@ -4265,7 +4268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:5">
       <c r="B260" t="s">
         <v>7</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:5">
       <c r="B261" t="s">
         <v>7</v>
       </c>
@@ -4293,7 +4296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:5">
       <c r="B262" t="s">
         <v>8</v>
       </c>
@@ -4307,7 +4310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:5">
       <c r="B263" t="s">
         <v>5</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:5">
       <c r="B264" t="s">
         <v>5</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:5">
       <c r="B265" t="s">
         <v>7</v>
       </c>
@@ -4349,7 +4352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:5">
       <c r="B266" t="s">
         <v>7</v>
       </c>
@@ -4363,7 +4366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:5">
       <c r="B267" t="s">
         <v>8</v>
       </c>
@@ -4377,7 +4380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:5">
       <c r="B268" t="s">
         <v>8</v>
       </c>
@@ -4391,7 +4394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:5">
       <c r="B269" t="s">
         <v>5</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:5">
       <c r="B270" t="s">
         <v>5</v>
       </c>
@@ -4419,7 +4422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:5">
       <c r="B271" t="s">
         <v>7</v>
       </c>
@@ -4433,7 +4436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:5">
       <c r="B272" t="s">
         <v>8</v>
       </c>
@@ -4447,7 +4450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:5">
       <c r="B273" t="s">
         <v>8</v>
       </c>
@@ -4461,7 +4464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:5">
       <c r="B274" t="s">
         <v>5</v>
       </c>
@@ -4475,7 +4478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:5">
       <c r="B275" t="s">
         <v>7</v>
       </c>
@@ -4489,7 +4492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:5">
       <c r="B276" t="s">
         <v>7</v>
       </c>
@@ -4503,7 +4506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:5">
       <c r="B277" t="s">
         <v>7</v>
       </c>
@@ -4517,7 +4520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:5">
       <c r="B278" t="s">
         <v>8</v>
       </c>
@@ -4531,7 +4534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:5">
       <c r="B279" t="s">
         <v>5</v>
       </c>
@@ -4545,7 +4548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:5">
       <c r="B280" t="s">
         <v>5</v>
       </c>
@@ -4559,7 +4562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:5">
       <c r="B281" t="s">
         <v>7</v>
       </c>
@@ -4573,7 +4576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:5">
       <c r="B282" t="s">
         <v>7</v>
       </c>
@@ -4587,7 +4590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:5">
       <c r="B283" t="s">
         <v>8</v>
       </c>
@@ -4601,7 +4604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:5">
       <c r="B284" t="s">
         <v>8</v>
       </c>
@@ -4615,7 +4618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:5">
       <c r="B285" t="s">
         <v>5</v>
       </c>
@@ -4629,7 +4632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:5">
       <c r="B286" t="s">
         <v>5</v>
       </c>
@@ -4643,7 +4646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:5">
       <c r="B287" t="s">
         <v>7</v>
       </c>
@@ -4657,7 +4660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:5">
       <c r="B288" t="s">
         <v>8</v>
       </c>
@@ -4671,7 +4674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:5">
       <c r="B289" t="s">
         <v>8</v>
       </c>
@@ -4685,7 +4688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:5">
       <c r="B290" t="s">
         <v>5</v>
       </c>
@@ -4699,7 +4702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:5">
       <c r="B291" t="s">
         <v>7</v>
       </c>
@@ -4713,7 +4716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:5">
       <c r="B292" t="s">
         <v>7</v>
       </c>
@@ -4727,7 +4730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:5">
       <c r="B293" t="s">
         <v>7</v>
       </c>
@@ -4741,7 +4744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:5">
       <c r="B294" t="s">
         <v>8</v>
       </c>
@@ -4755,7 +4758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:5">
       <c r="B295" t="s">
         <v>5</v>
       </c>
@@ -4769,7 +4772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:5">
       <c r="B296" t="s">
         <v>5</v>
       </c>
@@ -4783,7 +4786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:5">
       <c r="B297" t="s">
         <v>7</v>
       </c>
@@ -4797,7 +4800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:5">
       <c r="B298" t="s">
         <v>7</v>
       </c>
@@ -4811,7 +4814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:5">
       <c r="B299" t="s">
         <v>8</v>
       </c>
@@ -4825,7 +4828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:5">
       <c r="B300" t="s">
         <v>8</v>
       </c>
@@ -4839,7 +4842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:5">
       <c r="B301" t="s">
         <v>7</v>
       </c>
@@ -4853,7 +4856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:5">
       <c r="B302" t="s">
         <v>7</v>
       </c>
@@ -4867,7 +4870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:5">
       <c r="B303" t="s">
         <v>7</v>
       </c>
@@ -4881,7 +4884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:5">
       <c r="B304" t="s">
         <v>8</v>
       </c>
@@ -4895,7 +4898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:5">
       <c r="B305" t="s">
         <v>8</v>
       </c>
@@ -4909,7 +4912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:5">
       <c r="B306" t="s">
         <v>5</v>
       </c>
@@ -4923,7 +4926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:5">
       <c r="B307" t="s">
         <v>5</v>
       </c>
@@ -4937,7 +4940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:5">
       <c r="B308" t="s">
         <v>7</v>
       </c>
@@ -4951,7 +4954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:5">
       <c r="B309" t="s">
         <v>7</v>
       </c>
@@ -4965,7 +4968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:5">
       <c r="B310" t="s">
         <v>8</v>
       </c>
@@ -4979,7 +4982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:5">
       <c r="B311" t="s">
         <v>5</v>
       </c>
@@ -4993,7 +4996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:5">
       <c r="B312" t="s">
         <v>5</v>
       </c>
@@ -5007,7 +5010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:5">
       <c r="B313" t="s">
         <v>7</v>
       </c>
@@ -5021,7 +5024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:5">
       <c r="B314" t="s">
         <v>7</v>
       </c>
@@ -5035,7 +5038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:5">
       <c r="B315" t="s">
         <v>8</v>
       </c>
@@ -5049,7 +5052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:5">
       <c r="B316" t="s">
         <v>8</v>
       </c>
@@ -5063,7 +5066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:5">
       <c r="B317" t="s">
         <v>5</v>
       </c>
@@ -5077,7 +5080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:5">
       <c r="B318" t="s">
         <v>5</v>
       </c>
@@ -5091,7 +5094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:5">
       <c r="B319" t="s">
         <v>7</v>
       </c>
@@ -5105,7 +5108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:5">
       <c r="B320" t="s">
         <v>8</v>
       </c>
@@ -5119,7 +5122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:5">
       <c r="B321" t="s">
         <v>8</v>
       </c>
@@ -5133,7 +5136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:5">
       <c r="B322" t="s">
         <v>5</v>
       </c>
@@ -5147,7 +5150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:5">
       <c r="B323" t="s">
         <v>7</v>
       </c>
@@ -5161,7 +5164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:5">
       <c r="B324" t="s">
         <v>7</v>
       </c>
@@ -5175,7 +5178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:5">
       <c r="B325" t="s">
         <v>7</v>
       </c>
@@ -5189,7 +5192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:5">
       <c r="B326" t="s">
         <v>8</v>
       </c>
@@ -5203,7 +5206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:5">
       <c r="B327" t="s">
         <v>5</v>
       </c>
@@ -5217,7 +5220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:5">
       <c r="B328" t="s">
         <v>7</v>
       </c>
@@ -5231,7 +5234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:5">
       <c r="B329" t="s">
         <v>7</v>
       </c>
@@ -5245,7 +5248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:5">
       <c r="B330" t="s">
         <v>7</v>
       </c>
@@ -5259,7 +5262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:5">
       <c r="B331" t="s">
         <v>8</v>
       </c>
@@ -5273,7 +5276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:5">
       <c r="B332" t="s">
         <v>8</v>
       </c>
@@ -5287,7 +5290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:5">
       <c r="B333" t="s">
         <v>5</v>
       </c>
@@ -5301,7 +5304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:5">
       <c r="B334" t="s">
         <v>5</v>
       </c>
@@ -5315,7 +5318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:5">
       <c r="B335" t="s">
         <v>7</v>
       </c>
@@ -5329,7 +5332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:5">
       <c r="B336" t="s">
         <v>8</v>
       </c>
@@ -5343,7 +5346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:5">
       <c r="B337" t="s">
         <v>8</v>
       </c>
@@ -5357,7 +5360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:5">
       <c r="B338" t="s">
         <v>5</v>
       </c>
@@ -5371,7 +5374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:5">
       <c r="B339" t="s">
         <v>5</v>
       </c>
@@ -5385,7 +5388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:5">
       <c r="B340" t="s">
         <v>7</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:5">
       <c r="B341" t="s">
         <v>7</v>
       </c>
@@ -5413,7 +5416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:5">
       <c r="B342" t="s">
         <v>8</v>
       </c>
@@ -5427,7 +5430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:5">
       <c r="B343" t="s">
         <v>5</v>
       </c>
@@ -5441,7 +5444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:5">
       <c r="B344" t="s">
         <v>7</v>
       </c>
@@ -5455,7 +5458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:5">
       <c r="B345" t="s">
         <v>7</v>
       </c>
@@ -5469,7 +5472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:5">
       <c r="B346" t="s">
         <v>7</v>
       </c>
@@ -5483,7 +5486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:5">
       <c r="B347" t="s">
         <v>8</v>
       </c>
@@ -5497,7 +5500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:5">
       <c r="B348" t="s">
         <v>8</v>
       </c>
@@ -5511,7 +5514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:5">
       <c r="B349" t="s">
         <v>7</v>
       </c>
@@ -5525,7 +5528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:5">
       <c r="B350" t="s">
         <v>5</v>
       </c>
@@ -5539,7 +5542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:5">
       <c r="B351" t="s">
         <v>7</v>
       </c>
@@ -5553,7 +5556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:5">
       <c r="B352" t="s">
         <v>8</v>
       </c>
@@ -5567,7 +5570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:5">
       <c r="B353" t="s">
         <v>8</v>
       </c>
@@ -5581,7 +5584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:5">
       <c r="B354" t="s">
         <v>5</v>
       </c>
@@ -5595,7 +5598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:5">
       <c r="B355" t="s">
         <v>7</v>
       </c>
@@ -5609,7 +5612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:5">
       <c r="B356" t="s">
         <v>7</v>
       </c>
@@ -5623,7 +5626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:5">
       <c r="B357" t="s">
         <v>7</v>
       </c>
@@ -5637,7 +5640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:5">
       <c r="B358" t="s">
         <v>8</v>
       </c>
@@ -5651,7 +5654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:5">
       <c r="B359" t="s">
         <v>5</v>
       </c>
@@ -5665,7 +5668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:5">
       <c r="B360" t="s">
         <v>7</v>
       </c>
@@ -5679,7 +5682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:5">
       <c r="B361" t="s">
         <v>7</v>
       </c>
@@ -5693,7 +5696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:5">
       <c r="B362" t="s">
         <v>7</v>
       </c>
@@ -5707,7 +5710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:5">
       <c r="B363" t="s">
         <v>8</v>
       </c>
@@ -5721,7 +5724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:5">
       <c r="B364" t="s">
         <v>8</v>
       </c>
@@ -5735,7 +5738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:5">
       <c r="B365" t="s">
         <v>5</v>
       </c>
@@ -5749,7 +5752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:5">
       <c r="B366" t="s">
         <v>7</v>
       </c>
@@ -5777,7 +5780,7 @@
       <selection activeCell="B2" sqref="B2:O368"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
@@ -5788,7 +5791,7 @@
     <col min="18" max="18" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5835,7 +5838,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="12" customFormat="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -5854,7 +5857,7 @@
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
     </row>
-    <row r="3" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="12" customFormat="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -5873,7 +5876,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
     </row>
-    <row r="4" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="12" customFormat="1">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -5892,7 +5895,7 @@
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="12" customFormat="1">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -5911,7 +5914,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -5931,7 +5934,7 @@
       <c r="O6" s="14"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -5951,7 +5954,7 @@
       <c r="O7" s="14"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="12" customFormat="1">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -5971,7 +5974,7 @@
       <c r="O8" s="14"/>
       <c r="R8" s="13"/>
     </row>
-    <row r="9" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="12" customFormat="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -5990,7 +5993,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="12" customFormat="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -6009,7 +6012,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="12" customFormat="1">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -6028,7 +6031,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -6047,7 +6050,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -6066,7 +6069,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -6085,7 +6088,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -6104,7 +6107,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -6123,7 +6126,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -6142,7 +6145,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -6161,7 +6164,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -6180,7 +6183,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -6199,7 +6202,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="12" customFormat="1">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -6218,7 +6221,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -6237,7 +6240,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -6256,7 +6259,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -6275,7 +6278,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -6294,7 +6297,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -6313,7 +6316,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -6332,7 +6335,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -6351,7 +6354,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -6370,7 +6373,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -6389,7 +6392,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="12" customFormat="1">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -6408,7 +6411,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="12" customFormat="1">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -6427,7 +6430,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="12" customFormat="1">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -6446,7 +6449,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="12" customFormat="1">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -6465,7 +6468,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -6484,7 +6487,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -6503,7 +6506,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -6522,7 +6525,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -6541,7 +6544,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -6560,7 +6563,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -6579,7 +6582,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -6598,7 +6601,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -6617,7 +6620,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -6636,7 +6639,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="14"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -6655,7 +6658,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -6674,7 +6677,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="14"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -6693,7 +6696,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="14"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -6712,7 +6715,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -6731,7 +6734,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="14"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -6750,7 +6753,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="14"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -6769,7 +6772,7 @@
       <c r="N50" s="14"/>
       <c r="O50" s="14"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -6788,7 +6791,7 @@
       <c r="N51" s="14"/>
       <c r="O51" s="14"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -6807,7 +6810,7 @@
       <c r="N52" s="14"/>
       <c r="O52" s="14"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -6826,7 +6829,7 @@
       <c r="N53" s="14"/>
       <c r="O53" s="14"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -6845,7 +6848,7 @@
       <c r="N54" s="14"/>
       <c r="O54" s="14"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -6864,7 +6867,7 @@
       <c r="N55" s="14"/>
       <c r="O55" s="14"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15">
       <c r="A56" s="14">
         <v>55</v>
       </c>
@@ -6883,7 +6886,7 @@
       <c r="N56" s="14"/>
       <c r="O56" s="14"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15">
       <c r="A57" s="14">
         <v>56</v>
       </c>
@@ -6902,7 +6905,7 @@
       <c r="N57" s="14"/>
       <c r="O57" s="14"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15">
       <c r="A58" s="14">
         <v>57</v>
       </c>
@@ -6921,7 +6924,7 @@
       <c r="N58" s="14"/>
       <c r="O58" s="14"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="A59" s="14">
         <v>58</v>
       </c>
@@ -6940,7 +6943,7 @@
       <c r="N59" s="14"/>
       <c r="O59" s="14"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15">
       <c r="A60" s="14">
         <v>59</v>
       </c>
@@ -6959,7 +6962,7 @@
       <c r="N60" s="14"/>
       <c r="O60" s="14"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15">
       <c r="A61" s="14">
         <v>60</v>
       </c>
@@ -6978,7 +6981,7 @@
       <c r="N61" s="14"/>
       <c r="O61" s="14"/>
     </row>
-    <row r="62" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" s="12" customFormat="1">
       <c r="A62" s="14">
         <v>61</v>
       </c>
@@ -6997,7 +7000,7 @@
       <c r="N62" s="14"/>
       <c r="O62" s="14"/>
     </row>
-    <row r="63" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="12" customFormat="1">
       <c r="A63" s="14">
         <v>62</v>
       </c>
@@ -7016,7 +7019,7 @@
       <c r="N63" s="14"/>
       <c r="O63" s="14"/>
     </row>
-    <row r="64" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="12" customFormat="1">
       <c r="A64" s="14">
         <v>63</v>
       </c>
@@ -7035,7 +7038,7 @@
       <c r="N64" s="14"/>
       <c r="O64" s="14"/>
     </row>
-    <row r="65" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" s="12" customFormat="1">
       <c r="A65" s="14">
         <v>64</v>
       </c>
@@ -7054,7 +7057,7 @@
       <c r="N65" s="14"/>
       <c r="O65" s="14"/>
     </row>
-    <row r="66" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" s="12" customFormat="1">
       <c r="A66" s="14">
         <v>65</v>
       </c>
@@ -7073,7 +7076,7 @@
       <c r="N66" s="14"/>
       <c r="O66" s="14"/>
     </row>
-    <row r="67" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" s="12" customFormat="1">
       <c r="A67" s="14">
         <v>66</v>
       </c>
@@ -7092,7 +7095,7 @@
       <c r="N67" s="14"/>
       <c r="O67" s="14"/>
     </row>
-    <row r="68" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" s="12" customFormat="1">
       <c r="A68" s="14">
         <v>67</v>
       </c>
@@ -7111,7 +7114,7 @@
       <c r="N68" s="14"/>
       <c r="O68" s="14"/>
     </row>
-    <row r="69" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" s="12" customFormat="1">
       <c r="A69" s="14">
         <v>68</v>
       </c>
@@ -7130,7 +7133,7 @@
       <c r="N69" s="14"/>
       <c r="O69" s="14"/>
     </row>
-    <row r="70" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" s="12" customFormat="1">
       <c r="A70" s="14">
         <v>69</v>
       </c>
@@ -7149,7 +7152,7 @@
       <c r="N70" s="14"/>
       <c r="O70" s="14"/>
     </row>
-    <row r="71" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="12" customFormat="1">
       <c r="A71" s="14">
         <v>70</v>
       </c>
@@ -7168,7 +7171,7 @@
       <c r="N71" s="14"/>
       <c r="O71" s="14"/>
     </row>
-    <row r="72" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" s="12" customFormat="1">
       <c r="A72" s="14">
         <v>71</v>
       </c>
@@ -7187,7 +7190,7 @@
       <c r="N72" s="14"/>
       <c r="O72" s="14"/>
     </row>
-    <row r="73" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" s="12" customFormat="1">
       <c r="A73" s="14">
         <v>72</v>
       </c>
@@ -7206,7 +7209,7 @@
       <c r="N73" s="14"/>
       <c r="O73" s="14"/>
     </row>
-    <row r="74" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="12" customFormat="1">
       <c r="A74" s="14">
         <v>73</v>
       </c>
@@ -7225,7 +7228,7 @@
       <c r="N74" s="14"/>
       <c r="O74" s="14"/>
     </row>
-    <row r="75" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" s="12" customFormat="1">
       <c r="A75" s="14">
         <v>74</v>
       </c>
@@ -7244,7 +7247,7 @@
       <c r="N75" s="14"/>
       <c r="O75" s="14"/>
     </row>
-    <row r="76" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" s="12" customFormat="1">
       <c r="A76" s="14">
         <v>75</v>
       </c>
@@ -7263,7 +7266,7 @@
       <c r="N76" s="14"/>
       <c r="O76" s="14"/>
     </row>
-    <row r="77" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" s="12" customFormat="1">
       <c r="A77" s="14">
         <v>76</v>
       </c>
@@ -7282,7 +7285,7 @@
       <c r="N77" s="14"/>
       <c r="O77" s="14"/>
     </row>
-    <row r="78" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" s="12" customFormat="1">
       <c r="A78" s="14">
         <v>77</v>
       </c>
@@ -7301,7 +7304,7 @@
       <c r="N78" s="14"/>
       <c r="O78" s="14"/>
     </row>
-    <row r="79" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" s="12" customFormat="1">
       <c r="A79" s="14">
         <v>78</v>
       </c>
@@ -7320,7 +7323,7 @@
       <c r="N79" s="14"/>
       <c r="O79" s="14"/>
     </row>
-    <row r="80" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" s="12" customFormat="1">
       <c r="A80" s="14">
         <v>79</v>
       </c>
@@ -7339,7 +7342,7 @@
       <c r="N80" s="14"/>
       <c r="O80" s="14"/>
     </row>
-    <row r="81" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="12" customFormat="1">
       <c r="A81" s="14">
         <v>80</v>
       </c>
@@ -7358,7 +7361,7 @@
       <c r="N81" s="14"/>
       <c r="O81" s="14"/>
     </row>
-    <row r="82" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" s="12" customFormat="1">
       <c r="A82" s="14">
         <v>81</v>
       </c>
@@ -7377,7 +7380,7 @@
       <c r="N82" s="14"/>
       <c r="O82" s="14"/>
     </row>
-    <row r="83" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="12" customFormat="1">
       <c r="A83" s="14">
         <v>82</v>
       </c>
@@ -7396,7 +7399,7 @@
       <c r="N83" s="14"/>
       <c r="O83" s="14"/>
     </row>
-    <row r="84" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" s="12" customFormat="1">
       <c r="A84" s="14">
         <v>83</v>
       </c>
@@ -7415,7 +7418,7 @@
       <c r="N84" s="14"/>
       <c r="O84" s="14"/>
     </row>
-    <row r="85" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" s="12" customFormat="1">
       <c r="A85" s="14">
         <v>84</v>
       </c>
@@ -7434,7 +7437,7 @@
       <c r="N85" s="14"/>
       <c r="O85" s="14"/>
     </row>
-    <row r="86" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" s="12" customFormat="1">
       <c r="A86" s="14">
         <v>85</v>
       </c>
@@ -7453,7 +7456,7 @@
       <c r="N86" s="14"/>
       <c r="O86" s="14"/>
     </row>
-    <row r="87" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" s="12" customFormat="1">
       <c r="A87" s="14">
         <v>86</v>
       </c>
@@ -7472,7 +7475,7 @@
       <c r="N87" s="14"/>
       <c r="O87" s="14"/>
     </row>
-    <row r="88" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" s="12" customFormat="1">
       <c r="A88" s="14">
         <v>87</v>
       </c>
@@ -7491,7 +7494,7 @@
       <c r="N88" s="14"/>
       <c r="O88" s="14"/>
     </row>
-    <row r="89" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" s="12" customFormat="1">
       <c r="A89" s="14">
         <v>88</v>
       </c>
@@ -7510,7 +7513,7 @@
       <c r="N89" s="14"/>
       <c r="O89" s="14"/>
     </row>
-    <row r="90" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" s="12" customFormat="1">
       <c r="A90" s="14">
         <v>89</v>
       </c>
@@ -7529,7 +7532,7 @@
       <c r="N90" s="14"/>
       <c r="O90" s="14"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="A91" s="14">
         <v>90</v>
       </c>
@@ -7548,7 +7551,7 @@
       <c r="N91" s="14"/>
       <c r="O91" s="14"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="A92" s="14">
         <v>91</v>
       </c>
@@ -7567,7 +7570,7 @@
       <c r="N92" s="14"/>
       <c r="O92" s="14"/>
     </row>
-    <row r="93" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" s="12" customFormat="1">
       <c r="A93" s="14">
         <v>92</v>
       </c>
@@ -7586,7 +7589,7 @@
       <c r="N93" s="14"/>
       <c r="O93" s="14"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="A94" s="14">
         <v>93</v>
       </c>
@@ -7605,7 +7608,7 @@
       <c r="N94" s="14"/>
       <c r="O94" s="14"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="A95" s="14">
         <v>94</v>
       </c>
@@ -7624,7 +7627,7 @@
       <c r="N95" s="14"/>
       <c r="O95" s="14"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96" s="14">
         <v>95</v>
       </c>
@@ -7643,7 +7646,7 @@
       <c r="N96" s="14"/>
       <c r="O96" s="14"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15">
       <c r="A97" s="14">
         <v>96</v>
       </c>
@@ -7662,7 +7665,7 @@
       <c r="N97" s="14"/>
       <c r="O97" s="14"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15">
       <c r="A98" s="14">
         <v>97</v>
       </c>
@@ -7681,7 +7684,7 @@
       <c r="N98" s="14"/>
       <c r="O98" s="14"/>
     </row>
-    <row r="99" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" s="12" customFormat="1">
       <c r="A99" s="14">
         <v>98</v>
       </c>
@@ -7700,7 +7703,7 @@
       <c r="N99" s="14"/>
       <c r="O99" s="14"/>
     </row>
-    <row r="100" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" s="12" customFormat="1">
       <c r="A100" s="14">
         <v>99</v>
       </c>
@@ -7719,7 +7722,7 @@
       <c r="N100" s="14"/>
       <c r="O100" s="14"/>
     </row>
-    <row r="101" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" s="12" customFormat="1">
       <c r="A101" s="14">
         <v>100</v>
       </c>
@@ -7738,7 +7741,7 @@
       <c r="N101" s="14"/>
       <c r="O101" s="14"/>
     </row>
-    <row r="102" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" s="12" customFormat="1">
       <c r="A102" s="14">
         <v>101</v>
       </c>
@@ -7757,7 +7760,7 @@
       <c r="N102" s="14"/>
       <c r="O102" s="14"/>
     </row>
-    <row r="103" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" s="12" customFormat="1">
       <c r="A103" s="14">
         <v>102</v>
       </c>
@@ -7776,7 +7779,7 @@
       <c r="N103" s="14"/>
       <c r="O103" s="14"/>
     </row>
-    <row r="104" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" s="12" customFormat="1">
       <c r="A104" s="14">
         <v>103</v>
       </c>
@@ -7795,7 +7798,7 @@
       <c r="N104" s="14"/>
       <c r="O104" s="14"/>
     </row>
-    <row r="105" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" s="12" customFormat="1">
       <c r="A105" s="14">
         <v>104</v>
       </c>
@@ -7814,7 +7817,7 @@
       <c r="N105" s="14"/>
       <c r="O105" s="14"/>
     </row>
-    <row r="106" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" s="12" customFormat="1">
       <c r="A106" s="14">
         <v>105</v>
       </c>
@@ -7833,7 +7836,7 @@
       <c r="N106" s="14"/>
       <c r="O106" s="14"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15">
       <c r="A107" s="14">
         <v>106</v>
       </c>
@@ -7852,7 +7855,7 @@
       <c r="N107" s="14"/>
       <c r="O107" s="14"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15">
       <c r="A108" s="14">
         <v>107</v>
       </c>
@@ -7871,7 +7874,7 @@
       <c r="N108" s="14"/>
       <c r="O108" s="14"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15">
       <c r="A109" s="14">
         <v>108</v>
       </c>
@@ -7890,7 +7893,7 @@
       <c r="N109" s="14"/>
       <c r="O109" s="14"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15">
       <c r="A110" s="14">
         <v>109</v>
       </c>
@@ -7909,7 +7912,7 @@
       <c r="N110" s="14"/>
       <c r="O110" s="14"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15">
       <c r="A111" s="14">
         <v>110</v>
       </c>
@@ -7928,7 +7931,7 @@
       <c r="N111" s="14"/>
       <c r="O111" s="14"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15">
       <c r="A112" s="14">
         <v>111</v>
       </c>
@@ -7947,7 +7950,7 @@
       <c r="N112" s="14"/>
       <c r="O112" s="14"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15">
       <c r="A113" s="14">
         <v>112</v>
       </c>
@@ -7966,7 +7969,7 @@
       <c r="N113" s="14"/>
       <c r="O113" s="14"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15">
       <c r="A114" s="14">
         <v>113</v>
       </c>
@@ -7985,7 +7988,7 @@
       <c r="N114" s="14"/>
       <c r="O114" s="14"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15">
       <c r="A115" s="14">
         <v>114</v>
       </c>
@@ -8004,7 +8007,7 @@
       <c r="N115" s="14"/>
       <c r="O115" s="14"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15">
       <c r="A116" s="14">
         <v>115</v>
       </c>
@@ -8023,7 +8026,7 @@
       <c r="N116" s="14"/>
       <c r="O116" s="14"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15">
       <c r="A117" s="14">
         <v>116</v>
       </c>
@@ -8042,7 +8045,7 @@
       <c r="N117" s="14"/>
       <c r="O117" s="14"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15">
       <c r="A118" s="14">
         <v>117</v>
       </c>
@@ -8061,7 +8064,7 @@
       <c r="N118" s="14"/>
       <c r="O118" s="14"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15">
       <c r="A119" s="14">
         <v>118</v>
       </c>
@@ -8080,7 +8083,7 @@
       <c r="N119" s="14"/>
       <c r="O119" s="14"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15">
       <c r="A120" s="14">
         <v>119</v>
       </c>
@@ -8099,7 +8102,7 @@
       <c r="N120" s="14"/>
       <c r="O120" s="14"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15">
       <c r="A121" s="14">
         <v>120</v>
       </c>
@@ -8118,7 +8121,7 @@
       <c r="N121" s="14"/>
       <c r="O121" s="14"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15">
       <c r="A122" s="14">
         <v>121</v>
       </c>
@@ -8137,7 +8140,7 @@
       <c r="N122" s="14"/>
       <c r="O122" s="14"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15">
       <c r="A123" s="14">
         <v>122</v>
       </c>
@@ -8156,7 +8159,7 @@
       <c r="N123" s="14"/>
       <c r="O123" s="14"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15">
       <c r="A124" s="14">
         <v>123</v>
       </c>
@@ -8175,7 +8178,7 @@
       <c r="N124" s="14"/>
       <c r="O124" s="14"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15">
       <c r="A125" s="14">
         <v>124</v>
       </c>
@@ -8194,7 +8197,7 @@
       <c r="N125" s="14"/>
       <c r="O125" s="14"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15">
       <c r="A126" s="14">
         <v>125</v>
       </c>
@@ -8213,7 +8216,7 @@
       <c r="N126" s="14"/>
       <c r="O126" s="14"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15">
       <c r="A127" s="14">
         <v>126</v>
       </c>
@@ -8232,7 +8235,7 @@
       <c r="N127" s="14"/>
       <c r="O127" s="14"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15">
       <c r="A128" s="14">
         <v>127</v>
       </c>
@@ -8251,7 +8254,7 @@
       <c r="N128" s="14"/>
       <c r="O128" s="14"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15">
       <c r="A129" s="14">
         <v>128</v>
       </c>
@@ -8270,7 +8273,7 @@
       <c r="N129" s="14"/>
       <c r="O129" s="14"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15">
       <c r="A130" s="14">
         <v>129</v>
       </c>
@@ -8289,7 +8292,7 @@
       <c r="N130" s="14"/>
       <c r="O130" s="14"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15">
       <c r="A131" s="14">
         <v>130</v>
       </c>
@@ -8308,7 +8311,7 @@
       <c r="N131" s="14"/>
       <c r="O131" s="14"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15">
       <c r="A132" s="14">
         <v>131</v>
       </c>
@@ -8327,7 +8330,7 @@
       <c r="N132" s="14"/>
       <c r="O132" s="14"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15">
       <c r="A133" s="14">
         <v>132</v>
       </c>
@@ -8346,7 +8349,7 @@
       <c r="N133" s="14"/>
       <c r="O133" s="14"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15">
       <c r="A134" s="14">
         <v>133</v>
       </c>
@@ -8365,7 +8368,7 @@
       <c r="N134" s="14"/>
       <c r="O134" s="14"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15">
       <c r="A135" s="14">
         <v>134</v>
       </c>
@@ -8384,7 +8387,7 @@
       <c r="N135" s="14"/>
       <c r="O135" s="14"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15">
       <c r="A136" s="14">
         <v>135</v>
       </c>
@@ -8403,7 +8406,7 @@
       <c r="N136" s="14"/>
       <c r="O136" s="14"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15">
       <c r="A137" s="14">
         <v>136</v>
       </c>
@@ -8422,7 +8425,7 @@
       <c r="N137" s="14"/>
       <c r="O137" s="14"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15">
       <c r="A138" s="14">
         <v>137</v>
       </c>
@@ -8441,7 +8444,7 @@
       <c r="N138" s="14"/>
       <c r="O138" s="14"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15">
       <c r="A139" s="14">
         <v>138</v>
       </c>
@@ -8460,7 +8463,7 @@
       <c r="N139" s="14"/>
       <c r="O139" s="14"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15">
       <c r="A140" s="14">
         <v>139</v>
       </c>
@@ -8479,7 +8482,7 @@
       <c r="N140" s="14"/>
       <c r="O140" s="14"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15">
       <c r="A141" s="14">
         <v>140</v>
       </c>
@@ -8498,7 +8501,7 @@
       <c r="N141" s="14"/>
       <c r="O141" s="14"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15">
       <c r="A142" s="14">
         <v>141</v>
       </c>
@@ -8517,7 +8520,7 @@
       <c r="N142" s="14"/>
       <c r="O142" s="14"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15">
       <c r="A143" s="14">
         <v>142</v>
       </c>
@@ -8536,7 +8539,7 @@
       <c r="N143" s="14"/>
       <c r="O143" s="14"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15">
       <c r="A144" s="14">
         <v>143</v>
       </c>
@@ -8555,7 +8558,7 @@
       <c r="N144" s="14"/>
       <c r="O144" s="14"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15">
       <c r="A145" s="14">
         <v>144</v>
       </c>
@@ -8574,7 +8577,7 @@
       <c r="N145" s="14"/>
       <c r="O145" s="14"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15">
       <c r="A146" s="14">
         <v>145</v>
       </c>
@@ -8593,7 +8596,7 @@
       <c r="N146" s="14"/>
       <c r="O146" s="14"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15">
       <c r="A147" s="14">
         <v>146</v>
       </c>
@@ -8612,7 +8615,7 @@
       <c r="N147" s="14"/>
       <c r="O147" s="14"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15">
       <c r="A148" s="14">
         <v>147</v>
       </c>
@@ -8631,7 +8634,7 @@
       <c r="N148" s="14"/>
       <c r="O148" s="14"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15">
       <c r="A149" s="14">
         <v>148</v>
       </c>
@@ -8650,7 +8653,7 @@
       <c r="N149" s="14"/>
       <c r="O149" s="14"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15">
       <c r="A150" s="14">
         <v>149</v>
       </c>
@@ -8669,7 +8672,7 @@
       <c r="N150" s="14"/>
       <c r="O150" s="14"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15">
       <c r="A151" s="14">
         <v>150</v>
       </c>
@@ -8688,7 +8691,7 @@
       <c r="N151" s="14"/>
       <c r="O151" s="14"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15">
       <c r="A152" s="14">
         <v>151</v>
       </c>
@@ -8707,7 +8710,7 @@
       <c r="N152" s="14"/>
       <c r="O152" s="14"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15">
       <c r="A153" s="14">
         <v>152</v>
       </c>
@@ -8726,7 +8729,7 @@
       <c r="N153" s="14"/>
       <c r="O153" s="14"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15">
       <c r="A154" s="14">
         <v>153</v>
       </c>
@@ -8745,7 +8748,7 @@
       <c r="N154" s="14"/>
       <c r="O154" s="14"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15">
       <c r="A155" s="14">
         <v>154</v>
       </c>
@@ -8764,7 +8767,7 @@
       <c r="N155" s="14"/>
       <c r="O155" s="14"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15">
       <c r="A156" s="14">
         <v>155</v>
       </c>
@@ -8783,7 +8786,7 @@
       <c r="N156" s="14"/>
       <c r="O156" s="14"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15">
       <c r="A157" s="14">
         <v>156</v>
       </c>
@@ -8802,7 +8805,7 @@
       <c r="N157" s="14"/>
       <c r="O157" s="14"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15">
       <c r="A158" s="14">
         <v>157</v>
       </c>
@@ -8821,7 +8824,7 @@
       <c r="N158" s="14"/>
       <c r="O158" s="14"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15">
       <c r="A159" s="14">
         <v>158</v>
       </c>
@@ -8840,7 +8843,7 @@
       <c r="N159" s="14"/>
       <c r="O159" s="14"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15">
       <c r="A160" s="14">
         <v>159</v>
       </c>
@@ -8859,7 +8862,7 @@
       <c r="N160" s="14"/>
       <c r="O160" s="14"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15">
       <c r="A161" s="14">
         <v>160</v>
       </c>
@@ -8878,7 +8881,7 @@
       <c r="N161" s="14"/>
       <c r="O161" s="14"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15">
       <c r="A162" s="14">
         <v>161</v>
       </c>
@@ -8897,7 +8900,7 @@
       <c r="N162" s="14"/>
       <c r="O162" s="14"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15">
       <c r="A163" s="14">
         <v>162</v>
       </c>
@@ -8916,7 +8919,7 @@
       <c r="N163" s="14"/>
       <c r="O163" s="14"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15">
       <c r="A164" s="14">
         <v>163</v>
       </c>
@@ -8935,7 +8938,7 @@
       <c r="N164" s="14"/>
       <c r="O164" s="14"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15">
       <c r="A165" s="14">
         <v>164</v>
       </c>
@@ -8954,7 +8957,7 @@
       <c r="N165" s="14"/>
       <c r="O165" s="14"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15">
       <c r="A166" s="14">
         <v>165</v>
       </c>
@@ -8973,7 +8976,7 @@
       <c r="N166" s="14"/>
       <c r="O166" s="14"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15">
       <c r="A167" s="14">
         <v>166</v>
       </c>
@@ -8992,7 +8995,7 @@
       <c r="N167" s="14"/>
       <c r="O167" s="14"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15">
       <c r="A168" s="14">
         <v>167</v>
       </c>
@@ -9011,7 +9014,7 @@
       <c r="N168" s="14"/>
       <c r="O168" s="14"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15">
       <c r="A169" s="14">
         <v>168</v>
       </c>
@@ -9030,7 +9033,7 @@
       <c r="N169" s="14"/>
       <c r="O169" s="14"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15">
       <c r="A170" s="14">
         <v>169</v>
       </c>
@@ -9049,7 +9052,7 @@
       <c r="N170" s="14"/>
       <c r="O170" s="14"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15">
       <c r="A171" s="14">
         <v>170</v>
       </c>
@@ -9068,7 +9071,7 @@
       <c r="N171" s="14"/>
       <c r="O171" s="14"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15">
       <c r="A172" s="14">
         <v>171</v>
       </c>
@@ -9087,7 +9090,7 @@
       <c r="N172" s="14"/>
       <c r="O172" s="14"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15">
       <c r="A173" s="14">
         <v>172</v>
       </c>
@@ -9106,7 +9109,7 @@
       <c r="N173" s="14"/>
       <c r="O173" s="14"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15">
       <c r="A174" s="14">
         <v>173</v>
       </c>
@@ -9125,7 +9128,7 @@
       <c r="N174" s="14"/>
       <c r="O174" s="14"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15">
       <c r="A175" s="14">
         <v>174</v>
       </c>
@@ -9144,7 +9147,7 @@
       <c r="N175" s="14"/>
       <c r="O175" s="14"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15">
       <c r="A176" s="14">
         <v>175</v>
       </c>
@@ -9163,7 +9166,7 @@
       <c r="N176" s="14"/>
       <c r="O176" s="14"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15">
       <c r="A177" s="14">
         <v>176</v>
       </c>
@@ -9182,7 +9185,7 @@
       <c r="N177" s="14"/>
       <c r="O177" s="14"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15">
       <c r="A178" s="14">
         <v>177</v>
       </c>
@@ -9201,7 +9204,7 @@
       <c r="N178" s="14"/>
       <c r="O178" s="14"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15">
       <c r="A179" s="14">
         <v>178</v>
       </c>
@@ -9220,7 +9223,7 @@
       <c r="N179" s="14"/>
       <c r="O179" s="14"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15">
       <c r="A180" s="14">
         <v>179</v>
       </c>
@@ -9239,7 +9242,7 @@
       <c r="N180" s="14"/>
       <c r="O180" s="14"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15">
       <c r="A181" s="14">
         <v>180</v>
       </c>
@@ -9258,7 +9261,7 @@
       <c r="N181" s="14"/>
       <c r="O181" s="14"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15">
       <c r="A182" s="14">
         <v>181</v>
       </c>
@@ -9277,7 +9280,7 @@
       <c r="N182" s="14"/>
       <c r="O182" s="14"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15">
       <c r="A183" s="14">
         <v>182</v>
       </c>
@@ -9296,7 +9299,7 @@
       <c r="N183" s="14"/>
       <c r="O183" s="14"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15">
       <c r="A184" s="14">
         <v>183</v>
       </c>
@@ -9315,7 +9318,7 @@
       <c r="N184" s="14"/>
       <c r="O184" s="14"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15">
       <c r="A185" s="14">
         <v>184</v>
       </c>
@@ -9334,7 +9337,7 @@
       <c r="N185" s="14"/>
       <c r="O185" s="14"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15">
       <c r="A186" s="14">
         <v>185</v>
       </c>
@@ -9353,7 +9356,7 @@
       <c r="N186" s="14"/>
       <c r="O186" s="14"/>
     </row>
-    <row r="187" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" s="12" customFormat="1">
       <c r="A187" s="14">
         <v>186</v>
       </c>
@@ -9372,7 +9375,7 @@
       <c r="N187" s="14"/>
       <c r="O187" s="14"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15">
       <c r="A188" s="14">
         <v>187</v>
       </c>
@@ -9391,7 +9394,7 @@
       <c r="N188" s="14"/>
       <c r="O188" s="14"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15">
       <c r="A189" s="14">
         <v>188</v>
       </c>
@@ -9410,7 +9413,7 @@
       <c r="N189" s="14"/>
       <c r="O189" s="14"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15">
       <c r="A190" s="14">
         <v>189</v>
       </c>
@@ -9429,7 +9432,7 @@
       <c r="N190" s="14"/>
       <c r="O190" s="14"/>
     </row>
-    <row r="191" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" s="12" customFormat="1">
       <c r="A191" s="14">
         <v>190</v>
       </c>
@@ -9448,7 +9451,7 @@
       <c r="N191" s="14"/>
       <c r="O191" s="14"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15">
       <c r="A192" s="14">
         <v>191</v>
       </c>
@@ -9467,7 +9470,7 @@
       <c r="N192" s="14"/>
       <c r="O192" s="14"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15">
       <c r="A193" s="14">
         <v>192</v>
       </c>
@@ -9486,7 +9489,7 @@
       <c r="N193" s="14"/>
       <c r="O193" s="14"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15">
       <c r="A194" s="14">
         <v>193</v>
       </c>
@@ -9505,7 +9508,7 @@
       <c r="N194" s="14"/>
       <c r="O194" s="14"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15">
       <c r="A195" s="14">
         <v>194</v>
       </c>
@@ -9524,7 +9527,7 @@
       <c r="N195" s="14"/>
       <c r="O195" s="14"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15">
       <c r="A196" s="14">
         <v>195</v>
       </c>
@@ -9543,7 +9546,7 @@
       <c r="N196" s="14"/>
       <c r="O196" s="14"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15">
       <c r="A197" s="14">
         <v>196</v>
       </c>
@@ -9562,7 +9565,7 @@
       <c r="N197" s="14"/>
       <c r="O197" s="14"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15">
       <c r="A198" s="14">
         <v>197</v>
       </c>
@@ -9581,7 +9584,7 @@
       <c r="N198" s="14"/>
       <c r="O198" s="14"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15">
       <c r="A199" s="14">
         <v>198</v>
       </c>
@@ -9600,7 +9603,7 @@
       <c r="N199" s="14"/>
       <c r="O199" s="14"/>
     </row>
-    <row r="200" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" s="12" customFormat="1">
       <c r="A200" s="14">
         <v>199</v>
       </c>
@@ -9619,7 +9622,7 @@
       <c r="N200" s="14"/>
       <c r="O200" s="14"/>
     </row>
-    <row r="201" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" s="12" customFormat="1">
       <c r="A201" s="14">
         <v>200</v>
       </c>
@@ -9638,7 +9641,7 @@
       <c r="N201" s="14"/>
       <c r="O201" s="14"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15">
       <c r="A202" s="14">
         <v>201</v>
       </c>
@@ -9657,7 +9660,7 @@
       <c r="N202" s="14"/>
       <c r="O202" s="14"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15">
       <c r="A203" s="14">
         <v>202</v>
       </c>
@@ -9676,7 +9679,7 @@
       <c r="N203" s="14"/>
       <c r="O203" s="14"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15">
       <c r="A204" s="14">
         <v>203</v>
       </c>
@@ -9695,7 +9698,7 @@
       <c r="N204" s="14"/>
       <c r="O204" s="14"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15">
       <c r="A205" s="14">
         <v>204</v>
       </c>
@@ -9714,7 +9717,7 @@
       <c r="N205" s="14"/>
       <c r="O205" s="14"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15">
       <c r="A206" s="14">
         <v>205</v>
       </c>
@@ -9733,7 +9736,7 @@
       <c r="N206" s="14"/>
       <c r="O206" s="14"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15">
       <c r="A207" s="14">
         <v>206</v>
       </c>
@@ -9752,7 +9755,7 @@
       <c r="N207" s="14"/>
       <c r="O207" s="14"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15">
       <c r="A208" s="14">
         <v>207</v>
       </c>
@@ -9771,7 +9774,7 @@
       <c r="N208" s="14"/>
       <c r="O208" s="14"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15">
       <c r="A209" s="14">
         <v>208</v>
       </c>
@@ -9790,7 +9793,7 @@
       <c r="N209" s="14"/>
       <c r="O209" s="14"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15">
       <c r="A210" s="14">
         <v>209</v>
       </c>
@@ -9809,7 +9812,7 @@
       <c r="N210" s="14"/>
       <c r="O210" s="14"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15">
       <c r="A211" s="14">
         <v>210</v>
       </c>
@@ -9828,7 +9831,7 @@
       <c r="N211" s="14"/>
       <c r="O211" s="14"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15">
       <c r="A212" s="14">
         <v>211</v>
       </c>
@@ -9847,7 +9850,7 @@
       <c r="N212" s="14"/>
       <c r="O212" s="14"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15">
       <c r="A213" s="14">
         <v>212</v>
       </c>
@@ -9866,7 +9869,7 @@
       <c r="N213" s="14"/>
       <c r="O213" s="14"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15">
       <c r="A214" s="14">
         <v>213</v>
       </c>
@@ -9885,7 +9888,7 @@
       <c r="N214" s="14"/>
       <c r="O214" s="14"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15">
       <c r="A215" s="14">
         <v>214</v>
       </c>
@@ -9904,7 +9907,7 @@
       <c r="N215" s="14"/>
       <c r="O215" s="14"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15">
       <c r="A216" s="14">
         <v>215</v>
       </c>
@@ -9923,7 +9926,7 @@
       <c r="N216" s="14"/>
       <c r="O216" s="14"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15">
       <c r="A217" s="14">
         <v>216</v>
       </c>
@@ -9942,7 +9945,7 @@
       <c r="N217" s="14"/>
       <c r="O217" s="14"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15">
       <c r="A218" s="14">
         <v>217</v>
       </c>
@@ -9961,7 +9964,7 @@
       <c r="N218" s="14"/>
       <c r="O218" s="14"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15">
       <c r="A219" s="14">
         <v>218</v>
       </c>
@@ -9980,7 +9983,7 @@
       <c r="N219" s="14"/>
       <c r="O219" s="14"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15">
       <c r="A220" s="14">
         <v>219</v>
       </c>
@@ -9999,7 +10002,7 @@
       <c r="N220" s="14"/>
       <c r="O220" s="14"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15">
       <c r="A221" s="14">
         <v>220</v>
       </c>
@@ -10018,7 +10021,7 @@
       <c r="N221" s="14"/>
       <c r="O221" s="14"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15">
       <c r="A222" s="14">
         <v>221</v>
       </c>
@@ -10037,7 +10040,7 @@
       <c r="N222" s="14"/>
       <c r="O222" s="14"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15">
       <c r="A223" s="14">
         <v>222</v>
       </c>
@@ -10056,7 +10059,7 @@
       <c r="N223" s="14"/>
       <c r="O223" s="14"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15">
       <c r="A224" s="14">
         <v>223</v>
       </c>
@@ -10075,7 +10078,7 @@
       <c r="N224" s="14"/>
       <c r="O224" s="14"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15">
       <c r="A225" s="14">
         <v>224</v>
       </c>
@@ -10094,7 +10097,7 @@
       <c r="N225" s="14"/>
       <c r="O225" s="14"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15">
       <c r="A226" s="14">
         <v>225</v>
       </c>
@@ -10113,7 +10116,7 @@
       <c r="N226" s="14"/>
       <c r="O226" s="14"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15">
       <c r="A227" s="14">
         <v>226</v>
       </c>
@@ -10132,7 +10135,7 @@
       <c r="N227" s="14"/>
       <c r="O227" s="14"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15">
       <c r="A228" s="14">
         <v>227</v>
       </c>
@@ -10151,7 +10154,7 @@
       <c r="N228" s="14"/>
       <c r="O228" s="14"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15">
       <c r="A229" s="14">
         <v>228</v>
       </c>
@@ -10170,7 +10173,7 @@
       <c r="N229" s="14"/>
       <c r="O229" s="14"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15">
       <c r="A230" s="14">
         <v>229</v>
       </c>
@@ -10189,7 +10192,7 @@
       <c r="N230" s="14"/>
       <c r="O230" s="14"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15">
       <c r="A231" s="14">
         <v>230</v>
       </c>
@@ -10208,7 +10211,7 @@
       <c r="N231" s="14"/>
       <c r="O231" s="14"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15">
       <c r="A232" s="14">
         <v>231</v>
       </c>
@@ -10227,7 +10230,7 @@
       <c r="N232" s="14"/>
       <c r="O232" s="14"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15">
       <c r="A233" s="14">
         <v>232</v>
       </c>
@@ -10246,7 +10249,7 @@
       <c r="N233" s="14"/>
       <c r="O233" s="14"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15">
       <c r="A234" s="14">
         <v>233</v>
       </c>
@@ -10265,7 +10268,7 @@
       <c r="N234" s="14"/>
       <c r="O234" s="14"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15">
       <c r="A235" s="14">
         <v>234</v>
       </c>
@@ -10284,7 +10287,7 @@
       <c r="N235" s="14"/>
       <c r="O235" s="14"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15">
       <c r="A236" s="14">
         <v>235</v>
       </c>
@@ -10303,7 +10306,7 @@
       <c r="N236" s="14"/>
       <c r="O236" s="14"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15">
       <c r="A237" s="14">
         <v>236</v>
       </c>
@@ -10322,7 +10325,7 @@
       <c r="N237" s="14"/>
       <c r="O237" s="14"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15">
       <c r="A238" s="14">
         <v>237</v>
       </c>
@@ -10341,7 +10344,7 @@
       <c r="N238" s="14"/>
       <c r="O238" s="14"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15">
       <c r="A239" s="14">
         <v>238</v>
       </c>
@@ -10360,7 +10363,7 @@
       <c r="N239" s="14"/>
       <c r="O239" s="14"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15">
       <c r="A240" s="14">
         <v>239</v>
       </c>
@@ -10379,7 +10382,7 @@
       <c r="N240" s="14"/>
       <c r="O240" s="14"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15">
       <c r="A241" s="14">
         <v>240</v>
       </c>
@@ -10398,7 +10401,7 @@
       <c r="N241" s="14"/>
       <c r="O241" s="14"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15">
       <c r="A242" s="14">
         <v>241</v>
       </c>
@@ -10417,7 +10420,7 @@
       <c r="N242" s="14"/>
       <c r="O242" s="14"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15">
       <c r="A243" s="14">
         <v>242</v>
       </c>
@@ -10436,7 +10439,7 @@
       <c r="N243" s="14"/>
       <c r="O243" s="14"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15">
       <c r="A244" s="14">
         <v>243</v>
       </c>
@@ -10455,7 +10458,7 @@
       <c r="N244" s="14"/>
       <c r="O244" s="14"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15">
       <c r="A245" s="14">
         <v>244</v>
       </c>
@@ -10474,7 +10477,7 @@
       <c r="N245" s="14"/>
       <c r="O245" s="14"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15">
       <c r="A246" s="14">
         <v>245</v>
       </c>
@@ -10493,7 +10496,7 @@
       <c r="N246" s="14"/>
       <c r="O246" s="14"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15">
       <c r="A247" s="14">
         <v>246</v>
       </c>
@@ -10512,7 +10515,7 @@
       <c r="N247" s="14"/>
       <c r="O247" s="14"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15">
       <c r="A248" s="14">
         <v>247</v>
       </c>
@@ -10531,7 +10534,7 @@
       <c r="N248" s="14"/>
       <c r="O248" s="14"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15">
       <c r="A249" s="14">
         <v>248</v>
       </c>
@@ -10550,7 +10553,7 @@
       <c r="N249" s="14"/>
       <c r="O249" s="14"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15">
       <c r="A250" s="14">
         <v>249</v>
       </c>
@@ -10569,7 +10572,7 @@
       <c r="N250" s="14"/>
       <c r="O250" s="14"/>
     </row>
-    <row r="251" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" s="12" customFormat="1">
       <c r="A251" s="14">
         <v>250</v>
       </c>
@@ -10588,7 +10591,7 @@
       <c r="N251" s="14"/>
       <c r="O251" s="14"/>
     </row>
-    <row r="252" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" s="12" customFormat="1">
       <c r="A252" s="14">
         <v>251</v>
       </c>
@@ -10607,7 +10610,7 @@
       <c r="N252" s="14"/>
       <c r="O252" s="14"/>
     </row>
-    <row r="253" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" s="12" customFormat="1">
       <c r="A253" s="14">
         <v>252</v>
       </c>
@@ -10626,7 +10629,7 @@
       <c r="N253" s="14"/>
       <c r="O253" s="14"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15">
       <c r="A254" s="14">
         <v>253</v>
       </c>
@@ -10645,7 +10648,7 @@
       <c r="N254" s="14"/>
       <c r="O254" s="14"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15">
       <c r="A255" s="14">
         <v>254</v>
       </c>
@@ -10664,7 +10667,7 @@
       <c r="N255" s="14"/>
       <c r="O255" s="14"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15">
       <c r="A256" s="14">
         <v>255</v>
       </c>
@@ -10683,7 +10686,7 @@
       <c r="N256" s="14"/>
       <c r="O256" s="14"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15">
       <c r="A257" s="14">
         <v>256</v>
       </c>
@@ -10702,7 +10705,7 @@
       <c r="N257" s="14"/>
       <c r="O257" s="14"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15">
       <c r="A258" s="14">
         <v>257</v>
       </c>
@@ -10721,7 +10724,7 @@
       <c r="N258" s="14"/>
       <c r="O258" s="14"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15">
       <c r="A259" s="14">
         <v>258</v>
       </c>
@@ -10740,7 +10743,7 @@
       <c r="N259" s="14"/>
       <c r="O259" s="14"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15">
       <c r="A260" s="14">
         <v>259</v>
       </c>
@@ -10759,7 +10762,7 @@
       <c r="N260" s="14"/>
       <c r="O260" s="14"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15">
       <c r="A261" s="14">
         <v>260</v>
       </c>
@@ -10778,7 +10781,7 @@
       <c r="N261" s="14"/>
       <c r="O261" s="14"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15">
       <c r="A262" s="14">
         <v>261</v>
       </c>
@@ -10797,7 +10800,7 @@
       <c r="N262" s="14"/>
       <c r="O262" s="14"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15">
       <c r="A263" s="14">
         <v>262</v>
       </c>
@@ -10816,7 +10819,7 @@
       <c r="N263" s="14"/>
       <c r="O263" s="14"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15">
       <c r="A264" s="14">
         <v>263</v>
       </c>
@@ -10835,7 +10838,7 @@
       <c r="N264" s="14"/>
       <c r="O264" s="14"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15">
       <c r="A265" s="14">
         <v>264</v>
       </c>
@@ -10854,7 +10857,7 @@
       <c r="N265" s="14"/>
       <c r="O265" s="14"/>
     </row>
-    <row r="266" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" s="12" customFormat="1">
       <c r="A266" s="14">
         <v>265</v>
       </c>
@@ -10873,7 +10876,7 @@
       <c r="N266" s="14"/>
       <c r="O266" s="14"/>
     </row>
-    <row r="267" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" s="12" customFormat="1">
       <c r="A267" s="14">
         <v>266</v>
       </c>
@@ -10892,7 +10895,7 @@
       <c r="N267" s="14"/>
       <c r="O267" s="14"/>
     </row>
-    <row r="268" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" s="12" customFormat="1">
       <c r="A268" s="14">
         <v>267</v>
       </c>
@@ -10911,7 +10914,7 @@
       <c r="N268" s="14"/>
       <c r="O268" s="14"/>
     </row>
-    <row r="269" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" s="12" customFormat="1">
       <c r="A269" s="14">
         <v>268</v>
       </c>
@@ -10930,7 +10933,7 @@
       <c r="N269" s="14"/>
       <c r="O269" s="14"/>
     </row>
-    <row r="270" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" s="12" customFormat="1">
       <c r="A270" s="14">
         <v>269</v>
       </c>
@@ -10949,7 +10952,7 @@
       <c r="N270" s="14"/>
       <c r="O270" s="14"/>
     </row>
-    <row r="271" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" s="12" customFormat="1">
       <c r="A271" s="14">
         <v>270</v>
       </c>
@@ -10968,7 +10971,7 @@
       <c r="N271" s="14"/>
       <c r="O271" s="14"/>
     </row>
-    <row r="272" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" s="12" customFormat="1">
       <c r="A272" s="14">
         <v>271</v>
       </c>
@@ -10987,7 +10990,7 @@
       <c r="N272" s="14"/>
       <c r="O272" s="14"/>
     </row>
-    <row r="273" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" s="12" customFormat="1">
       <c r="A273" s="14">
         <v>272</v>
       </c>
@@ -11006,7 +11009,7 @@
       <c r="N273" s="14"/>
       <c r="O273" s="14"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15">
       <c r="A274" s="14">
         <v>273</v>
       </c>
@@ -11025,7 +11028,7 @@
       <c r="N274" s="14"/>
       <c r="O274" s="14"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15">
       <c r="A275" s="14">
         <v>274</v>
       </c>
@@ -11044,7 +11047,7 @@
       <c r="N275" s="14"/>
       <c r="O275" s="14"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15">
       <c r="A276" s="14">
         <v>275</v>
       </c>
@@ -11063,7 +11066,7 @@
       <c r="N276" s="14"/>
       <c r="O276" s="14"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15">
       <c r="A277" s="14">
         <v>276</v>
       </c>
@@ -11082,7 +11085,7 @@
       <c r="N277" s="14"/>
       <c r="O277" s="14"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15">
       <c r="A278" s="14">
         <v>277</v>
       </c>
@@ -11101,7 +11104,7 @@
       <c r="N278" s="14"/>
       <c r="O278" s="14"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15">
       <c r="A279" s="14">
         <v>278</v>
       </c>
@@ -11120,7 +11123,7 @@
       <c r="N279" s="14"/>
       <c r="O279" s="14"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15">
       <c r="A280" s="14">
         <v>279</v>
       </c>
@@ -11139,7 +11142,7 @@
       <c r="N280" s="14"/>
       <c r="O280" s="14"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15">
       <c r="A281" s="14">
         <v>280</v>
       </c>
@@ -11158,7 +11161,7 @@
       <c r="N281" s="14"/>
       <c r="O281" s="14"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15">
       <c r="A282" s="14">
         <v>281</v>
       </c>
@@ -11177,7 +11180,7 @@
       <c r="N282" s="14"/>
       <c r="O282" s="14"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15">
       <c r="A283" s="14">
         <v>282</v>
       </c>
@@ -11196,7 +11199,7 @@
       <c r="N283" s="14"/>
       <c r="O283" s="14"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15">
       <c r="A284" s="14">
         <v>283</v>
       </c>
@@ -11215,7 +11218,7 @@
       <c r="N284" s="14"/>
       <c r="O284" s="14"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15">
       <c r="A285" s="14">
         <v>284</v>
       </c>
@@ -11234,7 +11237,7 @@
       <c r="N285" s="14"/>
       <c r="O285" s="14"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15">
       <c r="A286" s="14">
         <v>285</v>
       </c>
@@ -11253,7 +11256,7 @@
       <c r="N286" s="14"/>
       <c r="O286" s="14"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15">
       <c r="A287" s="14">
         <v>286</v>
       </c>
@@ -11272,7 +11275,7 @@
       <c r="N287" s="14"/>
       <c r="O287" s="14"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15">
       <c r="A288" s="14">
         <v>287</v>
       </c>
@@ -11291,7 +11294,7 @@
       <c r="N288" s="14"/>
       <c r="O288" s="14"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15">
       <c r="A289" s="14">
         <v>288</v>
       </c>
@@ -11310,7 +11313,7 @@
       <c r="N289" s="14"/>
       <c r="O289" s="14"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15">
       <c r="A290" s="14">
         <v>289</v>
       </c>
@@ -11329,7 +11332,7 @@
       <c r="N290" s="14"/>
       <c r="O290" s="14"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15">
       <c r="A291" s="14">
         <v>290</v>
       </c>
@@ -11348,7 +11351,7 @@
       <c r="N291" s="14"/>
       <c r="O291" s="14"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15">
       <c r="A292" s="14">
         <v>291</v>
       </c>
@@ -11367,7 +11370,7 @@
       <c r="N292" s="14"/>
       <c r="O292" s="14"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15">
       <c r="A293" s="14">
         <v>292</v>
       </c>
@@ -11386,7 +11389,7 @@
       <c r="N293" s="14"/>
       <c r="O293" s="14"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15">
       <c r="A294" s="14">
         <v>293</v>
       </c>
@@ -11405,7 +11408,7 @@
       <c r="N294" s="14"/>
       <c r="O294" s="14"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15">
       <c r="A295" s="14">
         <v>294</v>
       </c>
@@ -11424,7 +11427,7 @@
       <c r="N295" s="14"/>
       <c r="O295" s="14"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15">
       <c r="A296" s="14">
         <v>295</v>
       </c>
@@ -11443,7 +11446,7 @@
       <c r="N296" s="14"/>
       <c r="O296" s="14"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15">
       <c r="A297" s="14">
         <v>296</v>
       </c>
@@ -11462,7 +11465,7 @@
       <c r="N297" s="14"/>
       <c r="O297" s="14"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15">
       <c r="A298" s="14">
         <v>297</v>
       </c>
@@ -11481,7 +11484,7 @@
       <c r="N298" s="14"/>
       <c r="O298" s="14"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15">
       <c r="A299" s="14">
         <v>298</v>
       </c>
@@ -11500,7 +11503,7 @@
       <c r="N299" s="14"/>
       <c r="O299" s="14"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15">
       <c r="A300" s="14">
         <v>299</v>
       </c>
@@ -11519,7 +11522,7 @@
       <c r="N300" s="14"/>
       <c r="O300" s="14"/>
     </row>
-    <row r="301" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" s="12" customFormat="1">
       <c r="A301" s="14">
         <v>300</v>
       </c>
@@ -11538,7 +11541,7 @@
       <c r="N301" s="14"/>
       <c r="O301" s="14"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15">
       <c r="A302" s="14">
         <v>301</v>
       </c>
@@ -11557,7 +11560,7 @@
       <c r="N302" s="14"/>
       <c r="O302" s="14"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15">
       <c r="A303" s="14">
         <v>302</v>
       </c>
@@ -11576,7 +11579,7 @@
       <c r="N303" s="14"/>
       <c r="O303" s="14"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15">
       <c r="A304" s="14">
         <v>303</v>
       </c>
@@ -11595,7 +11598,7 @@
       <c r="N304" s="14"/>
       <c r="O304" s="14"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15">
       <c r="A305" s="14">
         <v>304</v>
       </c>
@@ -11614,7 +11617,7 @@
       <c r="N305" s="14"/>
       <c r="O305" s="14"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15">
       <c r="A306" s="14">
         <v>305</v>
       </c>
@@ -11633,7 +11636,7 @@
       <c r="N306" s="14"/>
       <c r="O306" s="14"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15">
       <c r="A307" s="14">
         <v>306</v>
       </c>
@@ -11652,7 +11655,7 @@
       <c r="N307" s="14"/>
       <c r="O307" s="14"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15">
       <c r="A308" s="14">
         <v>307</v>
       </c>
@@ -11671,7 +11674,7 @@
       <c r="N308" s="14"/>
       <c r="O308" s="14"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15">
       <c r="A309" s="14">
         <v>308</v>
       </c>
@@ -11690,7 +11693,7 @@
       <c r="N309" s="14"/>
       <c r="O309" s="14"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15">
       <c r="A310" s="14">
         <v>309</v>
       </c>
@@ -11709,7 +11712,7 @@
       <c r="N310" s="14"/>
       <c r="O310" s="14"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15">
       <c r="A311" s="14">
         <v>310</v>
       </c>
@@ -11728,7 +11731,7 @@
       <c r="N311" s="14"/>
       <c r="O311" s="14"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15">
       <c r="A312" s="14">
         <v>311</v>
       </c>
@@ -11747,7 +11750,7 @@
       <c r="N312" s="14"/>
       <c r="O312" s="14"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15">
       <c r="A313" s="14">
         <v>312</v>
       </c>
@@ -11766,7 +11769,7 @@
       <c r="N313" s="14"/>
       <c r="O313" s="14"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15">
       <c r="A314" s="14">
         <v>313</v>
       </c>
@@ -11785,7 +11788,7 @@
       <c r="N314" s="14"/>
       <c r="O314" s="14"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15">
       <c r="A315" s="14">
         <v>314</v>
       </c>
@@ -11804,7 +11807,7 @@
       <c r="N315" s="14"/>
       <c r="O315" s="14"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15">
       <c r="A316" s="14">
         <v>315</v>
       </c>
@@ -11823,7 +11826,7 @@
       <c r="N316" s="14"/>
       <c r="O316" s="14"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15">
       <c r="A317" s="14">
         <v>316</v>
       </c>
@@ -11842,7 +11845,7 @@
       <c r="N317" s="14"/>
       <c r="O317" s="14"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15">
       <c r="A318" s="14">
         <v>317</v>
       </c>
@@ -11861,7 +11864,7 @@
       <c r="N318" s="14"/>
       <c r="O318" s="14"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15">
       <c r="A319" s="14">
         <v>318</v>
       </c>
@@ -11880,7 +11883,7 @@
       <c r="N319" s="14"/>
       <c r="O319" s="14"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15">
       <c r="A320" s="14">
         <v>319</v>
       </c>
@@ -11899,7 +11902,7 @@
       <c r="N320" s="14"/>
       <c r="O320" s="14"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15">
       <c r="A321" s="14">
         <v>320</v>
       </c>
@@ -11918,7 +11921,7 @@
       <c r="N321" s="14"/>
       <c r="O321" s="14"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15">
       <c r="A322" s="14">
         <v>321</v>
       </c>
@@ -11937,7 +11940,7 @@
       <c r="N322" s="14"/>
       <c r="O322" s="14"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15">
       <c r="A323" s="14">
         <v>322</v>
       </c>
@@ -11956,7 +11959,7 @@
       <c r="N323" s="14"/>
       <c r="O323" s="14"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15">
       <c r="A324" s="14">
         <v>323</v>
       </c>
@@ -11975,7 +11978,7 @@
       <c r="N324" s="14"/>
       <c r="O324" s="14"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15">
       <c r="A325" s="14">
         <v>324</v>
       </c>
@@ -11994,7 +11997,7 @@
       <c r="N325" s="14"/>
       <c r="O325" s="14"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15">
       <c r="A326" s="14">
         <v>325</v>
       </c>
@@ -12013,7 +12016,7 @@
       <c r="N326" s="14"/>
       <c r="O326" s="14"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15">
       <c r="A327" s="14">
         <v>326</v>
       </c>
@@ -12032,7 +12035,7 @@
       <c r="N327" s="14"/>
       <c r="O327" s="14"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15">
       <c r="A328" s="14">
         <v>327</v>
       </c>
@@ -12051,7 +12054,7 @@
       <c r="N328" s="14"/>
       <c r="O328" s="14"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15">
       <c r="A329" s="14">
         <v>328</v>
       </c>
@@ -12070,7 +12073,7 @@
       <c r="N329" s="14"/>
       <c r="O329" s="14"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15">
       <c r="A330" s="14">
         <v>329</v>
       </c>
@@ -12089,7 +12092,7 @@
       <c r="N330" s="14"/>
       <c r="O330" s="14"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15">
       <c r="A331" s="14">
         <v>330</v>
       </c>
@@ -12108,7 +12111,7 @@
       <c r="N331" s="14"/>
       <c r="O331" s="14"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15">
       <c r="A332" s="14">
         <v>331</v>
       </c>
@@ -12127,7 +12130,7 @@
       <c r="N332" s="14"/>
       <c r="O332" s="14"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15">
       <c r="A333" s="14">
         <v>332</v>
       </c>
@@ -12146,7 +12149,7 @@
       <c r="N333" s="14"/>
       <c r="O333" s="14"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15">
       <c r="A334" s="14">
         <v>333</v>
       </c>
@@ -12165,7 +12168,7 @@
       <c r="N334" s="14"/>
       <c r="O334" s="14"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15">
       <c r="A335" s="14">
         <v>334</v>
       </c>
@@ -12184,7 +12187,7 @@
       <c r="N335" s="14"/>
       <c r="O335" s="14"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15">
       <c r="A336" s="14">
         <v>335</v>
       </c>
@@ -12203,7 +12206,7 @@
       <c r="N336" s="14"/>
       <c r="O336" s="14"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15">
       <c r="A337" s="14">
         <v>336</v>
       </c>
@@ -12222,7 +12225,7 @@
       <c r="N337" s="14"/>
       <c r="O337" s="14"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15">
       <c r="A338" s="14">
         <v>337</v>
       </c>
@@ -12241,7 +12244,7 @@
       <c r="N338" s="14"/>
       <c r="O338" s="14"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15">
       <c r="A339" s="14">
         <v>338</v>
       </c>
@@ -12260,7 +12263,7 @@
       <c r="N339" s="14"/>
       <c r="O339" s="14"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15">
       <c r="A340" s="14">
         <v>339</v>
       </c>
@@ -12279,7 +12282,7 @@
       <c r="N340" s="14"/>
       <c r="O340" s="14"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15">
       <c r="A341" s="14">
         <v>340</v>
       </c>
@@ -12298,7 +12301,7 @@
       <c r="N341" s="14"/>
       <c r="O341" s="14"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15">
       <c r="A342" s="14">
         <v>341</v>
       </c>
@@ -12317,7 +12320,7 @@
       <c r="N342" s="14"/>
       <c r="O342" s="14"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15">
       <c r="A343" s="14">
         <v>342</v>
       </c>
@@ -12336,7 +12339,7 @@
       <c r="N343" s="14"/>
       <c r="O343" s="14"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15">
       <c r="A344" s="14">
         <v>343</v>
       </c>
@@ -12355,7 +12358,7 @@
       <c r="N344" s="14"/>
       <c r="O344" s="14"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15">
       <c r="A345" s="14">
         <v>344</v>
       </c>
@@ -12374,7 +12377,7 @@
       <c r="N345" s="14"/>
       <c r="O345" s="14"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15">
       <c r="A346" s="14">
         <v>345</v>
       </c>
@@ -12393,7 +12396,7 @@
       <c r="N346" s="14"/>
       <c r="O346" s="14"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15">
       <c r="A347" s="14">
         <v>346</v>
       </c>
@@ -12412,7 +12415,7 @@
       <c r="N347" s="14"/>
       <c r="O347" s="14"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15">
       <c r="A348" s="14">
         <v>347</v>
       </c>
@@ -12431,7 +12434,7 @@
       <c r="N348" s="14"/>
       <c r="O348" s="14"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15">
       <c r="A349" s="14">
         <v>348</v>
       </c>
@@ -12450,7 +12453,7 @@
       <c r="N349" s="14"/>
       <c r="O349" s="14"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15">
       <c r="A350" s="14">
         <v>349</v>
       </c>
@@ -12469,7 +12472,7 @@
       <c r="N350" s="14"/>
       <c r="O350" s="14"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15">
       <c r="A351" s="14">
         <v>350</v>
       </c>
@@ -12488,7 +12491,7 @@
       <c r="N351" s="14"/>
       <c r="O351" s="14"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15">
       <c r="A352" s="14">
         <v>351</v>
       </c>
@@ -12507,7 +12510,7 @@
       <c r="N352" s="14"/>
       <c r="O352" s="14"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15">
       <c r="A353" s="14">
         <v>352</v>
       </c>
@@ -12526,7 +12529,7 @@
       <c r="N353" s="14"/>
       <c r="O353" s="14"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15">
       <c r="A354" s="14">
         <v>353</v>
       </c>
@@ -12545,7 +12548,7 @@
       <c r="N354" s="14"/>
       <c r="O354" s="14"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15">
       <c r="A355" s="14">
         <v>354</v>
       </c>
@@ -12564,7 +12567,7 @@
       <c r="N355" s="14"/>
       <c r="O355" s="14"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15">
       <c r="A356" s="14">
         <v>355</v>
       </c>
@@ -12583,7 +12586,7 @@
       <c r="N356" s="14"/>
       <c r="O356" s="14"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15">
       <c r="A357" s="14">
         <v>356</v>
       </c>
@@ -12602,7 +12605,7 @@
       <c r="N357" s="14"/>
       <c r="O357" s="14"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15">
       <c r="A358" s="14">
         <v>357</v>
       </c>
@@ -12621,7 +12624,7 @@
       <c r="N358" s="14"/>
       <c r="O358" s="14"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15">
       <c r="A359" s="14">
         <v>358</v>
       </c>
@@ -12640,7 +12643,7 @@
       <c r="N359" s="14"/>
       <c r="O359" s="14"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15">
       <c r="A360" s="14">
         <v>359</v>
       </c>
@@ -12659,7 +12662,7 @@
       <c r="N360" s="14"/>
       <c r="O360" s="14"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15">
       <c r="A361" s="14">
         <v>360</v>
       </c>
@@ -12678,7 +12681,7 @@
       <c r="N361" s="14"/>
       <c r="O361" s="14"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15">
       <c r="A362" s="14">
         <v>361</v>
       </c>
@@ -12697,7 +12700,7 @@
       <c r="N362" s="14"/>
       <c r="O362" s="14"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15">
       <c r="A363" s="14">
         <v>362</v>
       </c>
@@ -12716,7 +12719,7 @@
       <c r="N363" s="14"/>
       <c r="O363" s="14"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15">
       <c r="A364" s="14">
         <v>363</v>
       </c>
@@ -12735,7 +12738,7 @@
       <c r="N364" s="14"/>
       <c r="O364" s="14"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15">
       <c r="A365" s="14">
         <v>364</v>
       </c>
@@ -12754,7 +12757,7 @@
       <c r="N365" s="14"/>
       <c r="O365" s="14"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15">
       <c r="A366" s="14">
         <v>365</v>
       </c>
@@ -12773,7 +12776,7 @@
       <c r="N366" s="14"/>
       <c r="O366" s="14"/>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15">
       <c r="A367" s="14"/>
       <c r="B367" s="14"/>
       <c r="C367" s="14"/>
@@ -12790,7 +12793,7 @@
       <c r="N367" s="14"/>
       <c r="O367" s="14"/>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15">
       <c r="A368" s="14"/>
       <c r="B368" s="14"/>
       <c r="C368" s="14"/>
@@ -12807,7 +12810,7 @@
       <c r="N368" s="14"/>
       <c r="O368" s="14"/>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15">
       <c r="A369" s="14"/>
       <c r="B369" s="14"/>
       <c r="C369" s="14"/>
@@ -12838,7 +12841,7 @@
       <selection activeCell="B3" sqref="B3:I366"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="33.140625" bestFit="1" customWidth="1"/>
@@ -12848,7 +12851,7 @@
     <col min="8" max="11" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12877,7 +12880,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12906,17 +12909,17 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.9" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12929,45 +12932,45 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12986,7 +12989,7 @@
       <selection activeCell="F2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -12997,7 +13000,7 @@
     <col min="10" max="10" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13017,7 +13020,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13025,7 +13028,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13033,7 +13036,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13041,7 +13044,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13049,7 +13052,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13057,7 +13060,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13065,7 +13068,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13073,27 +13076,27 @@
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13112,7 +13115,7 @@
       <selection activeCell="B2" sqref="B2:I367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
@@ -13124,7 +13127,7 @@
     <col min="9" max="9" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13147,69 +13150,69 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13228,14 +13231,14 @@
       <selection activeCell="G1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13258,17 +13261,17 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13287,7 +13290,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
@@ -13299,7 +13302,7 @@
     <col min="9" max="9" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13328,7 +13331,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13348,57 +13351,57 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13410,13 +13413,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.85546875" bestFit="1" customWidth="1"/>
@@ -13426,11 +13429,11 @@
     <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13458,86 +13461,89 @@
       <c r="I1" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
